--- a/AccountUser.xlsx
+++ b/AccountUser.xlsx
@@ -46,6 +46,60 @@
     <x:t>ReasonToReject</x:t>
   </x:si>
   <x:si>
+    <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Account Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Account Name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the   field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the  field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Account with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Account is created</x:t>
+  </x:si>
+  <x:si>
     <x:t>TestScenario_2</x:t>
   </x:si>
   <x:si>
@@ -55,39 +109,24 @@
     <x:t>Approve/Reject Account</x:t>
   </x:si>
   <x:si>
-    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on the Account tab</x:t>
   </x:si>
   <x:si>
     <x:t>User should be navigated to the Account Page</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 2</x:t>
-  </x:si>
-  <x:si>
     <x:t>From the list of the  Accounts displayed, select the appropriate Account.</x:t>
   </x:si>
   <x:si>
     <x:t>User should be navigated to the Account details page.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 3</x:t>
-  </x:si>
-  <x:si>
     <x:t>Scroll down the Account page to locate the 'Approval History' section.</x:t>
   </x:si>
   <x:si>
     <x:t>User should be able to view the pending Approve/Reject requests listed.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 4</x:t>
-  </x:si>
-  <x:si>
     <x:t>To Approve/Reject the record's request, Click on 'Approve/Reject' link.</x:t>
   </x:si>
   <x:si>
@@ -122,45 +161,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to view the request is either 'Approved' or 'Rejected'.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_1.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Account Name </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the   field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the  field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save Account with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Account is created</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -631,15 +631,17 @@
       <x:c r="B3" s="0" t="s"/>
       <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
@@ -649,15 +651,17 @@
       <x:c r="B4" s="0" t="s"/>
       <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
@@ -669,31 +673,39 @@
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:10">
-      <x:c r="A6" s="0" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
+      <x:c r="A6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -705,13 +717,13 @@
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -723,13 +735,13 @@
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -741,39 +753,31 @@
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -783,17 +787,15 @@
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
+      <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -803,17 +805,15 @@
       <x:c r="B12" s="0" t="s"/>
       <x:c r="C12" s="0" t="s"/>
       <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
+      <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -825,10 +825,10 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
         <x:v>48</x:v>
